--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_4_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_4_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3695761.2671135</v>
+        <v>3688587.978403216</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2346514.735702201</v>
+        <v>2346514.735702199</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665969</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7899795.910495253</v>
+        <v>7899795.910495254</v>
       </c>
     </row>
     <row r="11">
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>276.1565137023555</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>15.16194852731947</v>
@@ -709,25 +709,25 @@
         <v>141.0252816852793</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>205.8118405263978</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>222.4795457699687</v>
       </c>
       <c r="U2" t="n">
         <v>251.3343897888113</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>229.0191463366129</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>111.8735509699802</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -737,28 +737,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>131.7127578045382</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.2681884137393</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>42.16324961236021</v>
       </c>
       <c r="I3" t="n">
-        <v>86.80307722268739</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,13 +785,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>95.48084390037957</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>170.2839726213331</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>199.8611009721718</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -800,13 +800,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -843,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>14.93225064571201</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -861,10 +861,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>80.87383288310646</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>79.32511041905938</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>175.1311939478778</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -898,25 +898,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>32.61134880865198</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>372.0396308464208</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>372.0396308464208</v>
+        <v>14.83013367771037</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>192.2558301280911</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>120.1819171385219</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>198.2506096409304</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>177.130282462428</v>
       </c>
     </row>
     <row r="6">
@@ -974,10 +974,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>80.69052336281889</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,16 +1022,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>84.45800155129695</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>166.9863082141302</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>199.1455039024624</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>16.57981106695475</v>
+        <v>208.6184654594875</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>78.37121764358491</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1116,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>58.79376570039427</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>102.7540511849756</v>
       </c>
     </row>
     <row r="8">
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>299.9779908452707</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1150,10 +1150,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748118</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1192,10 +1192,10 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>163.8950372953901</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250821</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229336</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1302,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491435</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>206.3773460477721</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>101.7806877295493</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.7791350527397</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952498017</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1542,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>145.8066325228115</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1587,13 +1587,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>28.4640735156735</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1606,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0785952498009</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1773,10 +1773,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -1821,19 +1821,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>161.92385856539</v>
       </c>
       <c r="W16" t="n">
-        <v>242.3431394331446</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1843,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,13 +1897,13 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2055,22 +2055,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U19" t="n">
-        <v>10.34713777957299</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2080,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2137,7 +2137,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2247,10 +2247,10 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>139.6131720422763</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2332,13 +2332,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H23" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274054</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051987</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2414,10 +2414,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H24" t="n">
-        <v>94.98542483262918</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014433</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T24" t="n">
         <v>192.9654699154601</v>
@@ -2481,19 +2481,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,25 +2523,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>180.8879112933124</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>145.8066325228118</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2614,7 +2614,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>57.5645290049879</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2769,19 +2769,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056514</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2803,7 +2803,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>411.9645167896915</v>
@@ -2842,22 +2842,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
-        <v>251.0785952497999</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V29" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2961,13 +2961,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>139.153727875004</v>
+        <v>39.61035505917218</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3031,7 +3031,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710091</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274083</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T32" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U32" t="n">
-        <v>251.0785952498011</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V32" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560527</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,19 +3186,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
@@ -3249,13 +3249,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>10.4200743624906</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3271,7 +3271,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206836</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
@@ -3489,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056514</v>
       </c>
       <c r="Y37" t="n">
-        <v>115.526976800218</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3520,7 +3520,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113175</v>
+        <v>305.2872491113183</v>
       </c>
       <c r="I38" t="n">
         <v>81.77913505274074</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>115.526976800218</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
@@ -3723,13 +3723,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>31.42218700821035</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3909,7 +3909,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3954,19 +3954,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>31.41965822001945</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056514</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3994,7 +3994,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H44" t="n">
-        <v>305.287249111318</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
         <v>81.77913505274074</v>
@@ -4137,22 +4137,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>122.3137095599312</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4188,7 +4188,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,31 +4306,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>316.3535940554561</v>
+        <v>44.35312136793682</v>
       </c>
       <c r="C2" t="n">
-        <v>316.3535940554561</v>
+        <v>44.35312136793682</v>
       </c>
       <c r="D2" t="n">
-        <v>316.3535940554561</v>
+        <v>44.35312136793682</v>
       </c>
       <c r="E2" t="n">
-        <v>316.3535940554561</v>
+        <v>44.35312136793682</v>
       </c>
       <c r="F2" t="n">
-        <v>37.40762061873336</v>
+        <v>37.40762061873335</v>
       </c>
       <c r="G2" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="H2" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I2" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J2" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618842</v>
       </c>
       <c r="K2" t="n">
         <v>142.8373253438683</v>
@@ -4342,10 +4342,10 @@
         <v>586.3582880173956</v>
       </c>
       <c r="N2" t="n">
-        <v>817.0829279823542</v>
+        <v>817.0829279823541</v>
       </c>
       <c r="O2" t="n">
-        <v>989.7620250901066</v>
+        <v>989.7620250901062</v>
       </c>
       <c r="P2" t="n">
         <v>1099.465256491931</v>
@@ -4354,28 +4354,28 @@
         <v>1104.626054809422</v>
       </c>
       <c r="R2" t="n">
-        <v>962.1762753293418</v>
+        <v>962.1762753293416</v>
       </c>
       <c r="S2" t="n">
-        <v>962.1762753293418</v>
+        <v>754.2855273228791</v>
       </c>
       <c r="T2" t="n">
-        <v>962.1762753293418</v>
+        <v>529.5587134138199</v>
       </c>
       <c r="U2" t="n">
-        <v>708.3031543305426</v>
+        <v>275.6855924150206</v>
       </c>
       <c r="V2" t="n">
-        <v>708.3031543305426</v>
+        <v>44.35312136793682</v>
       </c>
       <c r="W2" t="n">
-        <v>708.3031543305426</v>
+        <v>44.35312136793682</v>
       </c>
       <c r="X2" t="n">
-        <v>595.2995674921788</v>
+        <v>44.35312136793682</v>
       </c>
       <c r="Y2" t="n">
-        <v>316.3535940554561</v>
+        <v>44.35312136793682</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>836.1767451915302</v>
+        <v>64.68166211877451</v>
       </c>
       <c r="C3" t="n">
-        <v>703.1335554899765</v>
+        <v>64.68166211877451</v>
       </c>
       <c r="D3" t="n">
-        <v>554.1991458287252</v>
+        <v>64.68166211877451</v>
       </c>
       <c r="E3" t="n">
-        <v>394.9616908232698</v>
+        <v>64.68166211877451</v>
       </c>
       <c r="F3" t="n">
-        <v>248.4271328501548</v>
+        <v>64.68166211877451</v>
       </c>
       <c r="G3" t="n">
-        <v>109.772397078701</v>
+        <v>64.68166211877451</v>
       </c>
       <c r="H3" t="n">
-        <v>109.772397078701</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I3" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J3" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="K3" t="n">
         <v>159.4923828364511</v>
       </c>
       <c r="L3" t="n">
-        <v>360.9520376814696</v>
+        <v>405.6478494291521</v>
       </c>
       <c r="M3" t="n">
-        <v>634.3469862468015</v>
+        <v>485.8202418432342</v>
       </c>
       <c r="N3" t="n">
-        <v>907.7419348121334</v>
+        <v>759.2151904085661</v>
       </c>
       <c r="O3" t="n">
-        <v>907.7419348121334</v>
+        <v>1025.71200399185</v>
       </c>
       <c r="P3" t="n">
-        <v>1104.626054809422</v>
+        <v>1025.71200399185</v>
       </c>
       <c r="Q3" t="n">
         <v>1104.626054809422</v>
       </c>
       <c r="R3" t="n">
-        <v>1008.180757940352</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="S3" t="n">
-        <v>836.1767451915302</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="T3" t="n">
-        <v>836.1767451915302</v>
+        <v>902.746154837531</v>
       </c>
       <c r="U3" t="n">
-        <v>836.1767451915302</v>
+        <v>902.746154837531</v>
       </c>
       <c r="V3" t="n">
-        <v>836.1767451915302</v>
+        <v>902.746154837531</v>
       </c>
       <c r="W3" t="n">
-        <v>836.1767451915302</v>
+        <v>648.5087981093293</v>
       </c>
       <c r="X3" t="n">
-        <v>836.1767451915302</v>
+        <v>440.6572979037965</v>
       </c>
       <c r="Y3" t="n">
-        <v>836.1767451915302</v>
+        <v>232.8969991388425</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>942.8089403627897</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="C4" t="n">
-        <v>942.8089403627897</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="D4" t="n">
-        <v>942.8089403627897</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="E4" t="n">
-        <v>942.8089403627897</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="F4" t="n">
-        <v>942.8089403627897</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="G4" t="n">
-        <v>942.8089403627897</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="H4" t="n">
-        <v>942.8089403627897</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I4" t="n">
-        <v>942.8089403627897</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J4" t="n">
-        <v>942.8089403627897</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="K4" t="n">
-        <v>927.7258589024746</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="L4" t="n">
-        <v>964.3352350712132</v>
+        <v>58.70189726492713</v>
       </c>
       <c r="M4" t="n">
-        <v>1013.323812322355</v>
+        <v>107.6904745160686</v>
       </c>
       <c r="N4" t="n">
-        <v>1066.582167123171</v>
+        <v>160.9488293168851</v>
       </c>
       <c r="O4" t="n">
-        <v>1099.758582381748</v>
+        <v>194.1252445754622</v>
       </c>
       <c r="P4" t="n">
-        <v>1104.626054809422</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="Q4" t="n">
-        <v>1022.935314523456</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="R4" t="n">
-        <v>942.8089403627897</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="S4" t="n">
-        <v>942.8089403627897</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="T4" t="n">
-        <v>942.8089403627897</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="U4" t="n">
-        <v>942.8089403627897</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="V4" t="n">
-        <v>942.8089403627897</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="W4" t="n">
-        <v>942.8089403627897</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="X4" t="n">
-        <v>942.8089403627897</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="Y4" t="n">
-        <v>942.8089403627897</v>
+        <v>22.09252109618843</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1366.762647488186</v>
+        <v>51.68860422470554</v>
       </c>
       <c r="C5" t="n">
-        <v>1333.821891115811</v>
+        <v>51.68860422470554</v>
       </c>
       <c r="D5" t="n">
-        <v>975.5561925090601</v>
+        <v>51.68860422470554</v>
       </c>
       <c r="E5" t="n">
-        <v>975.5561925090601</v>
+        <v>51.68860422470554</v>
       </c>
       <c r="F5" t="n">
-        <v>599.7585855934834</v>
+        <v>44.74310347550207</v>
       </c>
       <c r="G5" t="n">
-        <v>223.9609786779068</v>
+        <v>29.76317046771382</v>
       </c>
       <c r="H5" t="n">
-        <v>223.9609786779068</v>
+        <v>29.76317046771382</v>
       </c>
       <c r="I5" t="n">
-        <v>29.76317046771367</v>
+        <v>29.76317046771382</v>
       </c>
       <c r="J5" t="n">
-        <v>57.64391735380366</v>
+        <v>57.64391735380417</v>
       </c>
       <c r="K5" t="n">
-        <v>220.1747338456869</v>
+        <v>220.1747338456884</v>
       </c>
       <c r="L5" t="n">
-        <v>474.085211203996</v>
+        <v>474.0852112039984</v>
       </c>
       <c r="M5" t="n">
-        <v>773.2160860494137</v>
+        <v>773.2160860494172</v>
       </c>
       <c r="N5" t="n">
-        <v>1062.555213635718</v>
+        <v>1062.555213635723</v>
       </c>
       <c r="O5" t="n">
-        <v>1290.582309293124</v>
+        <v>1290.58230929313</v>
       </c>
       <c r="P5" t="n">
-        <v>1447.523776935876</v>
+        <v>1447.523776935883</v>
       </c>
       <c r="Q5" t="n">
-        <v>1488.158523385683</v>
+        <v>1488.158523385691</v>
       </c>
       <c r="R5" t="n">
-        <v>1366.762647488186</v>
+        <v>1488.158523385691</v>
       </c>
       <c r="S5" t="n">
-        <v>1366.762647488186</v>
+        <v>1287.905382334246</v>
       </c>
       <c r="T5" t="n">
-        <v>1366.762647488186</v>
+        <v>1287.905382334246</v>
       </c>
       <c r="U5" t="n">
-        <v>1366.762647488186</v>
+        <v>1287.905382334246</v>
       </c>
       <c r="V5" t="n">
-        <v>1366.762647488186</v>
+        <v>956.8424949906754</v>
       </c>
       <c r="W5" t="n">
-        <v>1366.762647488186</v>
+        <v>604.0738397205612</v>
       </c>
       <c r="X5" t="n">
-        <v>1366.762647488186</v>
+        <v>230.6080814594813</v>
       </c>
       <c r="Y5" t="n">
-        <v>1366.762647488186</v>
+        <v>51.68860422470554</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>111.2687496220762</v>
+        <v>204.2161997488408</v>
       </c>
       <c r="C6" t="n">
-        <v>111.2687496220762</v>
+        <v>29.76317046771382</v>
       </c>
       <c r="D6" t="n">
-        <v>111.2687496220762</v>
+        <v>29.76317046771382</v>
       </c>
       <c r="E6" t="n">
-        <v>111.2687496220762</v>
+        <v>29.76317046771382</v>
       </c>
       <c r="F6" t="n">
-        <v>111.2687496220762</v>
+        <v>29.76317046771382</v>
       </c>
       <c r="G6" t="n">
-        <v>111.2687496220762</v>
+        <v>29.76317046771382</v>
       </c>
       <c r="H6" t="n">
-        <v>111.2687496220762</v>
+        <v>29.76317046771382</v>
       </c>
       <c r="I6" t="n">
-        <v>29.76317046771367</v>
+        <v>29.76317046771382</v>
       </c>
       <c r="J6" t="n">
-        <v>29.76317046771367</v>
+        <v>29.76317046771382</v>
       </c>
       <c r="K6" t="n">
-        <v>195.5446164760261</v>
+        <v>29.76317046771382</v>
       </c>
       <c r="L6" t="n">
-        <v>195.5446164760261</v>
+        <v>314.0811796138503</v>
       </c>
       <c r="M6" t="n">
-        <v>563.8638510139828</v>
+        <v>682.4004141518087</v>
       </c>
       <c r="N6" t="n">
-        <v>932.1830855519394</v>
+        <v>1050.719648689767</v>
       </c>
       <c r="O6" t="n">
-        <v>1240.497966924258</v>
+        <v>1359.034530062087</v>
       </c>
       <c r="P6" t="n">
-        <v>1470.944773068227</v>
+        <v>1488.158523385691</v>
       </c>
       <c r="Q6" t="n">
-        <v>1488.158523385683</v>
+        <v>1488.158523385691</v>
       </c>
       <c r="R6" t="n">
-        <v>1402.847410707606</v>
+        <v>1488.158523385691</v>
       </c>
       <c r="S6" t="n">
-        <v>1234.174372107474</v>
+        <v>1488.158523385691</v>
       </c>
       <c r="T6" t="n">
-        <v>1033.017297458522</v>
+        <v>1488.158523385691</v>
       </c>
       <c r="U6" t="n">
-        <v>1016.270013552507</v>
+        <v>1277.43280069934</v>
       </c>
       <c r="V6" t="n">
-        <v>781.1179053207645</v>
+        <v>1042.280692467597</v>
       </c>
       <c r="W6" t="n">
-        <v>526.8805485925629</v>
+        <v>788.0433357393956</v>
       </c>
       <c r="X6" t="n">
-        <v>319.0290483870301</v>
+        <v>580.1918355338628</v>
       </c>
       <c r="Y6" t="n">
-        <v>111.2687496220762</v>
+        <v>372.4315367689089</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>255.8159640702552</v>
+        <v>29.76317046771382</v>
       </c>
       <c r="C7" t="n">
-        <v>255.8159640702552</v>
+        <v>29.76317046771382</v>
       </c>
       <c r="D7" t="n">
-        <v>255.8159640702552</v>
+        <v>29.76317046771382</v>
       </c>
       <c r="E7" t="n">
-        <v>255.8159640702552</v>
+        <v>29.76317046771382</v>
       </c>
       <c r="F7" t="n">
-        <v>108.9260165723449</v>
+        <v>29.76317046771382</v>
       </c>
       <c r="G7" t="n">
-        <v>108.9260165723449</v>
+        <v>29.76317046771382</v>
       </c>
       <c r="H7" t="n">
-        <v>108.9260165723449</v>
+        <v>29.76317046771382</v>
       </c>
       <c r="I7" t="n">
-        <v>108.9260165723449</v>
+        <v>29.76317046771382</v>
       </c>
       <c r="J7" t="n">
-        <v>29.76317046771367</v>
+        <v>29.76317046771382</v>
       </c>
       <c r="K7" t="n">
-        <v>32.09990175888123</v>
+        <v>32.09990175888172</v>
       </c>
       <c r="L7" t="n">
-        <v>90.61654790611203</v>
+        <v>90.61654790611296</v>
       </c>
       <c r="M7" t="n">
-        <v>162.7032697236678</v>
+        <v>162.7032697236692</v>
       </c>
       <c r="N7" t="n">
-        <v>238.5105468400008</v>
+        <v>238.5105468400026</v>
       </c>
       <c r="O7" t="n">
-        <v>292.514541505793</v>
+        <v>292.5145415057953</v>
       </c>
       <c r="P7" t="n">
-        <v>315.2036061918656</v>
+        <v>315.2036061918683</v>
       </c>
       <c r="Q7" t="n">
-        <v>315.2036061918656</v>
+        <v>315.2036061918683</v>
       </c>
       <c r="R7" t="n">
-        <v>315.2036061918656</v>
+        <v>315.2036061918683</v>
       </c>
       <c r="S7" t="n">
-        <v>315.2036061918656</v>
+        <v>315.2036061918683</v>
       </c>
       <c r="T7" t="n">
-        <v>315.2036061918656</v>
+        <v>315.2036061918683</v>
       </c>
       <c r="U7" t="n">
-        <v>315.2036061918656</v>
+        <v>315.2036061918683</v>
       </c>
       <c r="V7" t="n">
-        <v>315.2036061918656</v>
+        <v>315.2036061918683</v>
       </c>
       <c r="W7" t="n">
-        <v>255.8159640702552</v>
+        <v>315.2036061918683</v>
       </c>
       <c r="X7" t="n">
-        <v>255.8159640702552</v>
+        <v>315.2036061918683</v>
       </c>
       <c r="Y7" t="n">
-        <v>255.8159640702552</v>
+        <v>211.4116352979535</v>
       </c>
     </row>
     <row r="8">
@@ -4780,49 +4780,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1571.689018870909</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="C8" t="n">
-        <v>1268.68094731003</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="D8" t="n">
-        <v>1268.68094731003</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E8" t="n">
-        <v>882.8926947117852</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224071</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280442</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642688</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
         <v>2697.149091018222</v>
@@ -4840,16 +4840,16 @@
         <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>2311.057514205145</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W8" t="n">
-        <v>1958.288858935031</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="X8" t="n">
-        <v>1958.288858935031</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="Y8" t="n">
-        <v>1958.288858935031</v>
+        <v>2476.569858826099</v>
       </c>
     </row>
     <row r="9">
@@ -4883,25 +4883,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204942</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615926</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572643</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315295</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414846</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.07275543519</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.317569050018</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>200.8329293182748</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
         <v>53.94298182036445</v>
@@ -4965,49 +4965,49 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866325</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477909</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658207</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502497</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594897</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064339</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600557</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600557</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600557</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>490.2500993552354</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>490.2500993552354</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>490.2500993552354</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>200.8329293182748</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>200.8329293182748</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="Y10" t="n">
-        <v>200.8329293182748</v>
+        <v>404.5276295785111</v>
       </c>
     </row>
     <row r="11">
@@ -5017,55 +5017,55 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155874</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805459</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822451</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
         <v>4726.561275231264</v>
@@ -5074,19 +5074,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5117,19 +5117,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277035</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341673</v>
+        <v>534.5429807341677</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653857</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N12" t="n">
         <v>2051.878056918008</v>
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>244.4965182510046</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C13" t="n">
-        <v>244.4965182510046</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D13" t="n">
-        <v>244.4965182510046</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E13" t="n">
-        <v>244.4965182510046</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F13" t="n">
-        <v>244.4965182510046</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5217,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T13" t="n">
-        <v>1164.055751909234</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U13" t="n">
-        <v>874.9271131227918</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V13" t="n">
-        <v>874.9271131227918</v>
+        <v>957.2506271511957</v>
       </c>
       <c r="W13" t="n">
-        <v>874.9271131227918</v>
+        <v>667.8334571142351</v>
       </c>
       <c r="X13" t="n">
-        <v>646.9375622247744</v>
+        <v>667.8334571142351</v>
       </c>
       <c r="Y13" t="n">
-        <v>426.1449830812443</v>
+        <v>447.040877970705</v>
       </c>
     </row>
     <row r="14">
@@ -5260,16 +5260,16 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
@@ -5281,22 +5281,22 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5305,10 +5305,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
         <v>4262.357857465301</v>
@@ -5357,25 +5357,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341673</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M15" t="n">
-        <v>1302.911127126629</v>
+        <v>966.6932390011336</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1296.555866665166</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>710.3120936331045</v>
+        <v>415.509052552801</v>
       </c>
       <c r="C16" t="n">
-        <v>710.3120936331045</v>
+        <v>415.509052552801</v>
       </c>
       <c r="D16" t="n">
-        <v>560.1954542207687</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E16" t="n">
-        <v>412.2823606383756</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F16" t="n">
         <v>265.3924131404652</v>
@@ -5469,19 +5469,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>1209.787631771461</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V16" t="n">
-        <v>955.1031435655738</v>
+        <v>1335.356817461549</v>
       </c>
       <c r="W16" t="n">
-        <v>710.3120936331045</v>
+        <v>1045.939647424588</v>
       </c>
       <c r="X16" t="n">
-        <v>710.3120936331045</v>
+        <v>817.9500965265709</v>
       </c>
       <c r="Y16" t="n">
-        <v>710.3120936331045</v>
+        <v>597.1575173830407</v>
       </c>
     </row>
     <row r="17">
@@ -5503,10 +5503,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
@@ -5515,10 +5515,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5533,7 +5533,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5594,28 +5594,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>1433.546326320615</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>434.3285960683721</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
         <v>97.21709146028584</v>
@@ -5703,22 +5703,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U19" t="n">
-        <v>1064.759190940159</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V19" t="n">
-        <v>1064.759190940159</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W19" t="n">
-        <v>1064.759190940159</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>836.769640042142</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>615.9770608986119</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5740,13 +5740,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
@@ -5755,7 +5755,7 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
@@ -5831,28 +5831,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>880.8106280646855</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1188.130761344647</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>496.665036439558</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>496.665036439558</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>496.665036439558</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
@@ -5937,25 +5937,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U22" t="n">
-        <v>786.0822064765186</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V22" t="n">
-        <v>786.0822064765186</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W22" t="n">
-        <v>496.665036439558</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X22" t="n">
-        <v>496.665036439558</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y22" t="n">
-        <v>496.665036439558</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5977,49 +5977,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823719</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514023</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795201</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515093</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619125</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643322</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
         <v>4262.3578574653</v>
@@ -6053,43 +6053,43 @@
         <v>664.0438201101999</v>
       </c>
       <c r="E24" t="n">
-        <v>504.8063651047444</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316293</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358146</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675023</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126485</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571617</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636264</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643589</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307622</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.91651652632</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>713.8401545872508</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>713.8401545872508</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>563.7235151749151</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
         <v>97.21709146028584</v>
@@ -6147,52 +6147,52 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241959</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688077</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799373</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471205</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
-        <v>1049.608084974669</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980066</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585749</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557905</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557905</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473457</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T25" t="n">
-        <v>1116.281198561021</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U25" t="n">
-        <v>1116.281198561021</v>
+        <v>874.927113122792</v>
       </c>
       <c r="V25" t="n">
-        <v>1116.281198561021</v>
+        <v>874.927113122792</v>
       </c>
       <c r="W25" t="n">
-        <v>1116.281198561021</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X25" t="n">
-        <v>1116.281198561021</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y25" t="n">
-        <v>895.4886194174906</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="26">
@@ -6205,49 +6205,49 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D26" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014293</v>
@@ -6265,7 +6265,7 @@
         <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X26" t="n">
         <v>3205.060556590537</v>
@@ -6305,28 +6305,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6360,10 +6360,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>155.3630803542131</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C28" t="n">
-        <v>155.3630803542131</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D28" t="n">
         <v>97.21709146028587</v>
@@ -6384,7 +6384,7 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
         <v>259.7851881688072</v>
@@ -6393,7 +6393,7 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6402,34 +6402,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.210845262961</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>1075.210845262961</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V28" t="n">
-        <v>1075.210845262961</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W28" t="n">
-        <v>785.7936752260002</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X28" t="n">
-        <v>557.8041243279829</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y28" t="n">
-        <v>337.0115451844528</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="29">
@@ -6445,52 +6445,52 @@
         <v>2059.358867610192</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
@@ -6542,28 +6542,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>549.5984374701562</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>796.3635653766204</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1908.095276920733</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2187.63534213943</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2392.65782292164</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>237.7764125461485</v>
+        <v>284.1174986139257</v>
       </c>
       <c r="C31" t="n">
-        <v>237.7764125461485</v>
+        <v>284.1174986139257</v>
       </c>
       <c r="D31" t="n">
-        <v>237.7764125461485</v>
+        <v>284.1174986139257</v>
       </c>
       <c r="E31" t="n">
-        <v>237.7764125461485</v>
+        <v>284.1174986139257</v>
       </c>
       <c r="F31" t="n">
-        <v>237.7764125461485</v>
+        <v>137.2275511160153</v>
       </c>
       <c r="G31" t="n">
-        <v>237.7764125461485</v>
+        <v>137.2275511160153</v>
       </c>
       <c r="H31" t="n">
         <v>97.21709146028587</v>
@@ -6621,7 +6621,7 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
         <v>259.7851881688072</v>
@@ -6630,7 +6630,7 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6639,13 +6639,13 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
         <v>1298.996260473455</v>
@@ -6657,16 +6657,16 @@
         <v>1009.867621687013</v>
       </c>
       <c r="V31" t="n">
-        <v>755.1831334811264</v>
+        <v>755.183133481126</v>
       </c>
       <c r="W31" t="n">
-        <v>465.7659634441658</v>
+        <v>465.7659634441654</v>
       </c>
       <c r="X31" t="n">
-        <v>237.7764125461485</v>
+        <v>465.7659634441654</v>
       </c>
       <c r="Y31" t="n">
-        <v>237.7764125461485</v>
+        <v>465.7659634441654</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550605</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822463</v>
@@ -6700,13 +6700,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515098</v>
@@ -6715,13 +6715,13 @@
         <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P32" t="n">
         <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014293</v>
@@ -6733,19 +6733,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="33">
@@ -6779,28 +6779,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>674.428562457161</v>
+        <v>634.0455001582214</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636251</v>
+        <v>880.8106280646855</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1188.130761344647</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.37645130762</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526317</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3904.075074409315</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C34" t="n">
-        <v>3904.075074409315</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D34" t="n">
-        <v>3753.958434996979</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E34" t="n">
-        <v>3606.045341414586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F34" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G34" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H34" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>4860.854573014293</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T34" t="n">
-        <v>4860.854573014293</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U34" t="n">
-        <v>4571.725934227851</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V34" t="n">
-        <v>4317.041446021964</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W34" t="n">
-        <v>4306.516118383085</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>4306.516118383085</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y34" t="n">
-        <v>4085.723539239555</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
         <v>1701.093169003441</v>
@@ -6928,28 +6928,28 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643324</v>
@@ -6958,7 +6958,7 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014293</v>
@@ -6970,19 +6970,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7016,28 +7016,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277034</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>534.5429807341676</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7095,7 +7095,7 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
         <v>259.7851881688072</v>
@@ -7104,7 +7104,7 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7113,31 +7113,31 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1275.130855347409</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>986.0022165609669</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V37" t="n">
-        <v>731.31772835508</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W37" t="n">
-        <v>441.9005583181194</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X37" t="n">
-        <v>213.9110074201021</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y37" t="n">
         <v>97.21709146028587</v>
@@ -7156,16 +7156,16 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805468</v>
+        <v>488.1932370805475</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7174,28 +7174,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014293</v>
@@ -7253,28 +7253,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277034</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341676</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>841.8631140141293</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1646.27469227828</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2315.73845358094</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2520.760934363149</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7332,7 +7332,7 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
         <v>259.7851881688072</v>
@@ -7341,7 +7341,7 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7350,34 +7350,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1382.222354598087</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>869.3083006011507</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V40" t="n">
-        <v>614.6238123952638</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W40" t="n">
-        <v>325.2066423583032</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028587</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028587</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="41">
@@ -7493,19 +7493,19 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L42" t="n">
-        <v>901.674922584592</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.043068977054</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N42" t="n">
-        <v>1999.905696641086</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O42" t="n">
-        <v>2331.418122136705</v>
+        <v>2080.218333389736</v>
       </c>
       <c r="P42" t="n">
         <v>2536.440602918915</v>
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>413.0432218861031</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C43" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D43" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E43" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F43" t="n">
         <v>97.21709146028587</v>
@@ -7602,19 +7602,19 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
-        <v>1043.47381675789</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V43" t="n">
-        <v>1043.47381675789</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W43" t="n">
-        <v>1043.47381675789</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X43" t="n">
-        <v>815.4842658598729</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y43" t="n">
-        <v>594.6916867163428</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="44">
@@ -7627,19 +7627,19 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155897</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805472</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
         <v>179.8222783822463</v>
@@ -7648,52 +7648,52 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7730,25 +7730,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>966.6932390011339</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>665.6859735286132</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C46" t="n">
-        <v>542.1367719529251</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D46" t="n">
-        <v>392.0201325405893</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E46" t="n">
-        <v>244.1070389581962</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028587</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028587</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="H46" t="n">
         <v>97.21709146028587</v>
@@ -7836,22 +7836,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U46" t="n">
-        <v>1209.787631771461</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V46" t="n">
-        <v>955.1031435655738</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W46" t="n">
-        <v>665.6859735286132</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X46" t="n">
-        <v>665.6859735286132</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y46" t="n">
-        <v>665.6859735286132</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
   </sheetData>
@@ -8063,22 +8063,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>325.6930607098405</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>399.2039605324505</v>
+        <v>204.029661389774</v>
       </c>
       <c r="N3" t="n">
-        <v>387.9064735273546</v>
+        <v>387.9064735273547</v>
       </c>
       <c r="O3" t="n">
-        <v>124.673618687554</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>119.5899201578276</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3661252938572</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,28 +8294,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>102.9473967948386</v>
+        <v>102.9473967948383</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>97.00923094357555</v>
       </c>
       <c r="L6" t="n">
-        <v>83.65043707503929</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>450.1033532835727</v>
+        <v>450.1033532835737</v>
       </c>
       <c r="N6" t="n">
-        <v>437.6152809470452</v>
+        <v>437.6152809470462</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>216.1164930638101</v>
       </c>
       <c r="Q6" t="n">
-        <v>125.0913611080234</v>
+        <v>107.703734524734</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747269</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8777,10 +8777,10 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>409.7003683229582</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>423.337678916511</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9014,19 +9014,19 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>423.3376789165117</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>234.4116509503169</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445218</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9257,16 +9257,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>96.03744927814699</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,13 +9479,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>85.30006332127806</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720665</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
@@ -9646,7 +9646,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776707</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445199</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776749</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10202,19 +10202,19 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q30" t="n">
-        <v>145.2351313103788</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10430,7 +10430,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>223.6742649934479</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776749</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10664,31 +10664,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>423.3376789165111</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928333</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10901,10 +10901,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10913,19 +10913,19 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q39" t="n">
-        <v>15.83804904622774</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11141,22 +11141,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>52.49733361305249</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>253.7371603504737</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298293</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11378,7 +11378,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11387,19 +11387,19 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>369.0893880493729</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23430,7 +23430,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>20.68693594056606</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
@@ -23475,13 +23475,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>223.6735698081545</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23661,10 +23661,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23709,19 +23709,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>90.21378475843801</v>
       </c>
       <c r="W16" t="n">
-        <v>44.17985890344644</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23904,7 +23904,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23943,22 +23943,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U19" t="n">
-        <v>275.8902146190043</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24135,10 +24135,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>6.82079060429291</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -24147,7 +24147,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,25 +24177,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>103.0576765518774</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24369,22 +24369,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>110.4192454642719</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,25 +24411,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037927</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>40.65964976507684</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>140.7163658137792</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24600,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>91.05094401322445</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24657,19 +24657,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24849,13 +24849,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>9.760100492532132</v>
+        <v>109.3034733083639</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25074,19 +25074,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
@@ -25125,10 +25125,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25137,13 +25137,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>276.1029239741004</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25362,7 +25362,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="Y37" t="n">
-        <v>103.0576765518768</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25599,7 +25599,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>82.39383318338523</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25611,13 +25611,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>194.2874683808268</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25797,7 +25797,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
@@ -25842,19 +25842,19 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>254.8176941785579</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26025,22 +26025,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>44.93311153869659</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>33.38685156731854</v>
       </c>
       <c r="I46" t="n">
         <v>110.419245464272</v>
@@ -26076,7 +26076,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>673713.7004289464</v>
+        <v>673713.7004289462</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>673713.7004289463</v>
+        <v>673713.7004289464</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>673713.7004289463</v>
+        <v>673713.7004289464</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>673713.7004289462</v>
+        <v>673713.7004289463</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>673713.7004289462</v>
+        <v>673713.7004289463</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>673713.7004289462</v>
+        <v>673713.7004289463</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>673713.7004289463</v>
+        <v>673713.7004289462</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>759463.6371244619</v>
+        <v>759463.6371244617</v>
       </c>
       <c r="C2" t="n">
-        <v>759463.6371244618</v>
+        <v>759463.6371244621</v>
       </c>
       <c r="D2" t="n">
-        <v>759463.6371244623</v>
+        <v>759463.6371244622</v>
       </c>
       <c r="E2" t="n">
-        <v>723403.7605147618</v>
+        <v>723403.760514762</v>
       </c>
       <c r="F2" t="n">
+        <v>723403.7605147617</v>
+      </c>
+      <c r="G2" t="n">
         <v>723403.7605147612</v>
       </c>
-      <c r="G2" t="n">
-        <v>723403.7605147618</v>
-      </c>
       <c r="H2" t="n">
-        <v>723403.7605147616</v>
+        <v>723403.7605147612</v>
       </c>
       <c r="I2" t="n">
-        <v>723403.7605147616</v>
+        <v>723403.7605147612</v>
       </c>
       <c r="J2" t="n">
-        <v>723403.7605147614</v>
+        <v>723403.7605147613</v>
       </c>
       <c r="K2" t="n">
-        <v>723403.7605147617</v>
+        <v>723403.7605147612</v>
       </c>
       <c r="L2" t="n">
         <v>723403.7605147617</v>
       </c>
       <c r="M2" t="n">
+        <v>723403.7605147616</v>
+      </c>
+      <c r="N2" t="n">
         <v>723403.7605147614</v>
       </c>
-      <c r="N2" t="n">
-        <v>723403.7605147618</v>
-      </c>
       <c r="O2" t="n">
-        <v>723403.7605147613</v>
+        <v>723403.7605147612</v>
       </c>
       <c r="P2" t="n">
-        <v>723403.7605147617</v>
+        <v>723403.7605147614</v>
       </c>
     </row>
     <row r="3">
@@ -26365,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>126293.341446813</v>
+        <v>126293.3414468129</v>
       </c>
       <c r="C3" t="n">
-        <v>106137.1517703823</v>
+        <v>106137.1517703845</v>
       </c>
       <c r="D3" t="n">
-        <v>316711.942425212</v>
+        <v>316711.9424252104</v>
       </c>
       <c r="E3" t="n">
         <v>525160.0364768964</v>
       </c>
       <c r="F3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>72254.69487113818</v>
+        <v>72254.69487113913</v>
       </c>
       <c r="K3" t="n">
-        <v>24677.24609313382</v>
+        <v>24677.24609313431</v>
       </c>
       <c r="L3" t="n">
-        <v>76496.1579381716</v>
+        <v>76496.15793817121</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338373</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,7 +26420,7 @@
         <v>300141.6569151476</v>
       </c>
       <c r="C4" t="n">
-        <v>269877.2512870327</v>
+        <v>269877.2512870322</v>
       </c>
       <c r="D4" t="n">
         <v>174490.7773218262</v>
@@ -26429,31 +26429,31 @@
         <v>29303.54555230233</v>
       </c>
       <c r="F4" t="n">
-        <v>29303.54555230237</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="G4" t="n">
-        <v>29303.54555230237</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="H4" t="n">
-        <v>29303.54555230235</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="I4" t="n">
-        <v>29303.54555230225</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="J4" t="n">
         <v>29303.54555230233</v>
       </c>
       <c r="K4" t="n">
-        <v>29303.54555230227</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="L4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230225</v>
       </c>
       <c r="M4" t="n">
         <v>29303.54555230233</v>
       </c>
       <c r="N4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="O4" t="n">
         <v>29303.54555230228</v>
@@ -26472,16 +26472,16 @@
         <v>51181.37951678014</v>
       </c>
       <c r="C5" t="n">
-        <v>58810.42201485704</v>
+        <v>58810.42201485719</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871665</v>
+      </c>
+      <c r="F5" t="n">
         <v>91987.32594871662</v>
-      </c>
-      <c r="F5" t="n">
-        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871664</v>
@@ -26490,10 +26490,10 @@
         <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871664</v>
@@ -26502,10 +26502,10 @@
         <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871664</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>281847.2592457213</v>
+        <v>281847.259245721</v>
       </c>
       <c r="C6" t="n">
-        <v>324638.8120521897</v>
+        <v>324638.8120521882</v>
       </c>
       <c r="D6" t="n">
-        <v>185401.8393140146</v>
+        <v>185401.8393140161</v>
       </c>
       <c r="E6" t="n">
-        <v>76952.85253684646</v>
+        <v>75978.26127712503</v>
       </c>
       <c r="F6" t="n">
-        <v>602112.8890137422</v>
+        <v>601138.2977540212</v>
       </c>
       <c r="G6" t="n">
-        <v>602112.8890137428</v>
+        <v>601138.2977540207</v>
       </c>
       <c r="H6" t="n">
-        <v>602112.8890137426</v>
+        <v>601138.2977540207</v>
       </c>
       <c r="I6" t="n">
-        <v>602112.8890137426</v>
+        <v>601138.2977540207</v>
       </c>
       <c r="J6" t="n">
-        <v>529858.1941426042</v>
+        <v>528883.6028828816</v>
       </c>
       <c r="K6" t="n">
-        <v>577435.642920609</v>
+        <v>576461.0516608863</v>
       </c>
       <c r="L6" t="n">
-        <v>525616.7310755712</v>
+        <v>524642.13981585</v>
       </c>
       <c r="M6" t="n">
-        <v>467311.8737799052</v>
+        <v>466337.2825201836</v>
       </c>
       <c r="N6" t="n">
-        <v>602112.8890137429</v>
+        <v>601138.2977540208</v>
       </c>
       <c r="O6" t="n">
-        <v>602112.8890137424</v>
+        <v>601138.2977540207</v>
       </c>
       <c r="P6" t="n">
-        <v>602112.8890137427</v>
+        <v>601138.2977540209</v>
       </c>
     </row>
   </sheetData>
@@ -26697,16 +26697,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26737,43 +26737,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.02126071912533</v>
+        <v>35.02126071912529</v>
       </c>
       <c r="C3" t="n">
-        <v>117.5602045593879</v>
+        <v>117.5602045593895</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170863</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541017</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
         <v>830.3824054541003</v>
@@ -26789,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>276.1565137023555</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="C4" t="n">
-        <v>372.0396308464208</v>
+        <v>372.0396308464227</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26919,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26940,7 +26940,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>8.232646240229372e-14</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26959,19 +26959,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.02126071912533</v>
+        <v>35.02126071912529</v>
       </c>
       <c r="C3" t="n">
-        <v>82.53894384026256</v>
+        <v>82.53894384026424</v>
       </c>
       <c r="D3" t="n">
-        <v>260.1834596576984</v>
+        <v>260.1834596576971</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370139</v>
+        <v>452.6387412370138</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-1.818488836709068e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>276.1565137023555</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="C4" t="n">
-        <v>95.88311714406535</v>
+        <v>95.88311714406728</v>
       </c>
       <c r="D4" t="n">
-        <v>302.2476419081348</v>
+        <v>302.2476419081329</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>276.1565137023557</v>
+        <v>276.1565137023556</v>
       </c>
       <c r="K4" t="n">
-        <v>95.88311714406547</v>
+        <v>95.88311714406728</v>
       </c>
       <c r="L4" t="n">
-        <v>302.2476419081342</v>
+        <v>302.2476419081329</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27156,7 +27156,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>276.1565137023555</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="K4" t="n">
-        <v>95.88311714406535</v>
+        <v>95.88311714406728</v>
       </c>
       <c r="L4" t="n">
-        <v>302.2476419081348</v>
+        <v>302.2476419081329</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27390,7 +27390,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>130.719532039356</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>205.8118405263978</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>222.4795457699687</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>98.73311213352196</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>257.8575497084888</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>110.0814249536981</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27457,28 +27457,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>40.99574118377757</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.2681884137393</v>
       </c>
       <c r="H3" t="n">
-        <v>111.5079271034444</v>
+        <v>69.34467749108424</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>86.80307722268741</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,13 +27505,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>170.2839726213331</v>
       </c>
       <c r="T3" t="n">
-        <v>199.8611009721718</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>225.9364262421938</v>
@@ -27520,13 +27520,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27563,7 +27563,7 @@
         <v>88.89425643449839</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27581,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="R4" t="n">
-        <v>95.12868824472004</v>
+        <v>174.4537986637794</v>
       </c>
       <c r="S4" t="n">
         <v>222.9160118599466</v>
@@ -27602,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>50.57846144115931</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27618,25 +27618,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>332.6615429623556</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>34.8364148952906</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>42.79050283128954</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>334.6347480657417</v>
+        <v>334.6347480657416</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>192.2558301280909</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>120.1819171385215</v>
       </c>
       <c r="S5" t="n">
-        <v>198.2506096409305</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>221.0270262658048</v>
@@ -27675,16 +27675,16 @@
         <v>251.3078446008425</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>209.1076561936256</v>
       </c>
     </row>
     <row r="6">
@@ -27694,10 +27694,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -27715,7 +27715,7 @@
         <v>109.7932973455552</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>80.69052336281878</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,16 +27742,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>84.45800155129673</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>166.9863082141301</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>199.1455039024624</v>
       </c>
       <c r="U6" t="n">
-        <v>209.3449351360164</v>
+        <v>17.30628074348365</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27785,7 +27785,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.7789855469582</v>
@@ -27794,10 +27794,10 @@
         <v>160.342354801553</v>
       </c>
       <c r="I7" t="n">
-        <v>149.0752428504967</v>
+        <v>149.0752428504966</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>78.3712176435847</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,16 +27818,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>68.41045236322681</v>
+        <v>68.41045236322657</v>
       </c>
       <c r="R7" t="n">
-        <v>167.7613787255181</v>
+        <v>167.761378725518</v>
       </c>
       <c r="S7" t="n">
-        <v>220.3221240674584</v>
+        <v>220.3221240674583</v>
       </c>
       <c r="T7" t="n">
-        <v>227.0397976882338</v>
+        <v>227.0397976882337</v>
       </c>
       <c r="U7" t="n">
         <v>286.3074660576818</v>
@@ -27836,13 +27836,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>227.7292326361967</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>115.8306021671192</v>
       </c>
     </row>
     <row r="8">
@@ -27852,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>65.2949009257369</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27870,10 +27870,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27912,10 +27912,10 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>185.3459314220229</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28022,7 +28022,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853704</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,16 +28055,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>18.65775941031222</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28073,13 +28073,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>123.9289676594879</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28326,28 +28326,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28563,28 +28563,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28614,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -28800,22 +28800,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -28851,7 +28851,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -28863,13 +28863,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -29808,16 +29808,16 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>-5.646840325043698e-14</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>-8.232646240229372e-14</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>-8.232646240229372e-14</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1407889878155791</v>
+        <v>0.140788987815579</v>
       </c>
       <c r="H2" t="n">
-        <v>1.4418552214663</v>
+        <v>1.441855221466299</v>
       </c>
       <c r="I2" t="n">
-        <v>5.427767452760119</v>
+        <v>5.427767452760113</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>11.94928935461251</v>
       </c>
       <c r="K2" t="n">
-        <v>17.90888720884599</v>
+        <v>17.90888720884597</v>
       </c>
       <c r="L2" t="n">
-        <v>22.21755819470702</v>
+        <v>22.217558194707</v>
       </c>
       <c r="M2" t="n">
-        <v>24.72131435677232</v>
+        <v>24.7213143567723</v>
       </c>
       <c r="N2" t="n">
-        <v>25.12133106840334</v>
+        <v>25.12133106840331</v>
       </c>
       <c r="O2" t="n">
-        <v>23.72136057081217</v>
+        <v>23.72136057081215</v>
       </c>
       <c r="P2" t="n">
-        <v>20.24563243411506</v>
+        <v>20.24563243411504</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.20362680796963</v>
+        <v>15.20362680796961</v>
       </c>
       <c r="R2" t="n">
-        <v>8.843836255870379</v>
+        <v>8.84383625587037</v>
       </c>
       <c r="S2" t="n">
-        <v>3.208229059847512</v>
+        <v>3.208229059847509</v>
       </c>
       <c r="T2" t="n">
-        <v>0.6163037941626979</v>
+        <v>0.6163037941626972</v>
       </c>
       <c r="U2" t="n">
-        <v>0.01126311902524633</v>
+        <v>0.01126311902524632</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.07532874947132619</v>
+        <v>0.0753287494713261</v>
       </c>
       <c r="H3" t="n">
-        <v>0.7275171330520188</v>
+        <v>0.727517133052018</v>
       </c>
       <c r="I3" t="n">
-        <v>2.593555628727678</v>
+        <v>2.593555628727676</v>
       </c>
       <c r="J3" t="n">
-        <v>7.11691487877999</v>
+        <v>7.116914878779982</v>
       </c>
       <c r="K3" t="n">
-        <v>12.16394109335884</v>
+        <v>12.16394109335883</v>
       </c>
       <c r="L3" t="n">
-        <v>16.35591992358773</v>
+        <v>16.35591992358772</v>
       </c>
       <c r="M3" t="n">
-        <v>19.0865870919233</v>
+        <v>19.08658709192328</v>
       </c>
       <c r="N3" t="n">
-        <v>19.59175225833409</v>
+        <v>19.59175225833406</v>
       </c>
       <c r="O3" t="n">
-        <v>17.92262575689049</v>
+        <v>17.92262575689047</v>
       </c>
       <c r="P3" t="n">
-        <v>14.38448725650263</v>
+        <v>14.38448725650261</v>
       </c>
       <c r="Q3" t="n">
-        <v>9.615648792164375</v>
+        <v>9.615648792164365</v>
       </c>
       <c r="R3" t="n">
-        <v>4.676990252263569</v>
+        <v>4.676990252263565</v>
       </c>
       <c r="S3" t="n">
-        <v>1.399198482504676</v>
+        <v>1.399198482504675</v>
       </c>
       <c r="T3" t="n">
-        <v>0.3036277226497752</v>
+        <v>0.3036277226497748</v>
       </c>
       <c r="U3" t="n">
-        <v>0.004955838781008304</v>
+        <v>0.004955838781008299</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.06315309310006206</v>
+        <v>0.06315309310006199</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5614884095623703</v>
+        <v>0.5614884095623698</v>
       </c>
       <c r="I4" t="n">
-        <v>1.899185745227322</v>
+        <v>1.89918574522732</v>
       </c>
       <c r="J4" t="n">
-        <v>4.464923682174388</v>
+        <v>4.464923682174383</v>
       </c>
       <c r="K4" t="n">
-        <v>7.337241180170845</v>
+        <v>7.337241180170838</v>
       </c>
       <c r="L4" t="n">
-        <v>9.389142586894684</v>
+        <v>9.389142586894673</v>
       </c>
       <c r="M4" t="n">
-        <v>9.899534402948818</v>
+        <v>9.899534402948808</v>
       </c>
       <c r="N4" t="n">
-        <v>9.664145601394049</v>
+        <v>9.66414560139404</v>
       </c>
       <c r="O4" t="n">
-        <v>8.926402650179686</v>
+        <v>8.926402650179675</v>
       </c>
       <c r="P4" t="n">
-        <v>7.638079550938413</v>
+        <v>7.638079550938405</v>
       </c>
       <c r="Q4" t="n">
-        <v>5.288210368587925</v>
+        <v>5.28821036858792</v>
       </c>
       <c r="R4" t="n">
-        <v>2.839592713390063</v>
+        <v>2.83959271339006</v>
       </c>
       <c r="S4" t="n">
-        <v>1.100586177025627</v>
+        <v>1.100586177025626</v>
       </c>
       <c r="T4" t="n">
-        <v>0.2698359432457196</v>
+        <v>0.2698359432457194</v>
       </c>
       <c r="U4" t="n">
-        <v>0.003444714169094298</v>
+        <v>0.003444714169094295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4726038374246745</v>
+        <v>0.4726038374246812</v>
       </c>
       <c r="H5" t="n">
-        <v>4.84005405002545</v>
+        <v>4.840054050025517</v>
       </c>
       <c r="I5" t="n">
-        <v>18.22005944231478</v>
+        <v>18.22005944231504</v>
       </c>
       <c r="J5" t="n">
-        <v>40.11165994662251</v>
+        <v>40.11165994662307</v>
       </c>
       <c r="K5" t="n">
-        <v>60.116980384809</v>
+        <v>60.11698038480984</v>
       </c>
       <c r="L5" t="n">
-        <v>74.5804300743944</v>
+        <v>74.58043007439544</v>
       </c>
       <c r="M5" t="n">
-        <v>82.98509856819544</v>
+        <v>82.98509856819661</v>
       </c>
       <c r="N5" t="n">
-        <v>84.32788422127831</v>
+        <v>84.32788422127949</v>
       </c>
       <c r="O5" t="n">
-        <v>79.62842981288669</v>
+        <v>79.62842981288782</v>
       </c>
       <c r="P5" t="n">
-        <v>67.96102257646503</v>
+        <v>67.96102257646599</v>
       </c>
       <c r="Q5" t="n">
-        <v>51.03589764869386</v>
+        <v>51.03589764869457</v>
       </c>
       <c r="R5" t="n">
-        <v>29.68720080262774</v>
+        <v>29.68720080262815</v>
       </c>
       <c r="S5" t="n">
-        <v>10.76945994531478</v>
+        <v>10.76945994531493</v>
       </c>
       <c r="T5" t="n">
-        <v>2.068823298326514</v>
+        <v>2.068823298326543</v>
       </c>
       <c r="U5" t="n">
-        <v>0.03780830699397396</v>
+        <v>0.03780830699397449</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2528653456560419</v>
+        <v>0.2528653456560454</v>
       </c>
       <c r="H6" t="n">
-        <v>2.442146890941247</v>
+        <v>2.442146890941281</v>
       </c>
       <c r="I6" t="n">
-        <v>8.70610948859618</v>
+        <v>8.706109488596301</v>
       </c>
       <c r="J6" t="n">
-        <v>23.89022987182807</v>
+        <v>23.8902298718284</v>
       </c>
       <c r="K6" t="n">
-        <v>40.83220803078287</v>
+        <v>40.83220803078344</v>
       </c>
       <c r="L6" t="n">
-        <v>54.90394270483488</v>
+        <v>54.90394270483566</v>
       </c>
       <c r="M6" t="n">
-        <v>64.07031148486639</v>
+        <v>64.07031148486729</v>
       </c>
       <c r="N6" t="n">
-        <v>65.76606198270889</v>
+        <v>65.76606198270981</v>
       </c>
       <c r="O6" t="n">
-        <v>60.16309827106712</v>
+        <v>60.16309827106796</v>
       </c>
       <c r="P6" t="n">
-        <v>48.28619043496821</v>
+        <v>48.28619043496889</v>
       </c>
       <c r="Q6" t="n">
-        <v>32.27803956128703</v>
+        <v>32.27803956128749</v>
       </c>
       <c r="R6" t="n">
-        <v>15.69983260134618</v>
+        <v>15.6998326013464</v>
       </c>
       <c r="S6" t="n">
-        <v>4.696862889707616</v>
+        <v>4.696862889707683</v>
       </c>
       <c r="T6" t="n">
-        <v>1.019224792359221</v>
+        <v>1.019224792359235</v>
       </c>
       <c r="U6" t="n">
-        <v>0.01663587800368697</v>
+        <v>0.01663587800368721</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2119938115005355</v>
+        <v>0.2119938115005385</v>
       </c>
       <c r="H7" t="n">
-        <v>1.884817705886581</v>
+        <v>1.884817705886607</v>
       </c>
       <c r="I7" t="n">
-        <v>6.37523207676156</v>
+        <v>6.37523207676165</v>
       </c>
       <c r="J7" t="n">
-        <v>14.98796247308786</v>
+        <v>14.98796247308807</v>
       </c>
       <c r="K7" t="n">
-        <v>24.62982646342585</v>
+        <v>24.62982646342619</v>
       </c>
       <c r="L7" t="n">
-        <v>31.51769812072508</v>
+        <v>31.51769812072552</v>
       </c>
       <c r="M7" t="n">
-        <v>33.23099356094303</v>
+        <v>33.2309935609435</v>
       </c>
       <c r="N7" t="n">
-        <v>32.44083480898652</v>
+        <v>32.44083480898697</v>
       </c>
       <c r="O7" t="n">
-        <v>29.96436164736661</v>
+        <v>29.96436164736703</v>
       </c>
       <c r="P7" t="n">
-        <v>25.63968789275567</v>
+        <v>25.63968789275603</v>
       </c>
       <c r="Q7" t="n">
-        <v>17.75159088846757</v>
+        <v>17.75159088846782</v>
       </c>
       <c r="R7" t="n">
-        <v>9.532012651651348</v>
+        <v>9.532012651651483</v>
       </c>
       <c r="S7" t="n">
-        <v>3.694473969513877</v>
+        <v>3.694473969513929</v>
       </c>
       <c r="T7" t="n">
-        <v>0.9057917400477424</v>
+        <v>0.9057917400477551</v>
       </c>
       <c r="U7" t="n">
-        <v>0.01156329880912013</v>
+        <v>0.01156329880912029</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340044</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140998</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554461</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727434</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081576</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630667</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405365</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338302</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119863</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954665</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044136</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633789</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727379</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473547</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472035</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141102</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188907</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890687</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396469</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478006</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.870296998312</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736698</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923045</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479576</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639064</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034977</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131471</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372662</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619148</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078604</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644436</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492003</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813573</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302232</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246923</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666593</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175835</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383792</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678003</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701161</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197221</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315607</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32314,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32323,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32341,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443622</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444951</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176654</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961209</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041495</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304449</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565528</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927196</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540896</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130947001</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647502</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446481</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104662</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
-        <v>14.61306122562946</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354898</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354106</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
-        <v>17.25001940386728</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127075</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215737</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622987</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358991</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724854</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.536285481347</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855533</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458555</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.994806871096</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
-        <v>110.895220109512</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.1761272367747</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361502</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1175069441680333</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081167</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990347</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298637</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
-        <v>105.8669502822385</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557937</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196128</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171323</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263754</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065636</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P25" t="n">
-        <v>181.1050413469076</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235693</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337681</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336905</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892256</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351828</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32940,7 +32940,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32949,31 +32949,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33022,31 +33022,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
@@ -33101,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33113,7 +33113,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
@@ -33125,19 +33125,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33177,7 +33177,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33186,31 +33186,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33259,31 +33259,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
@@ -33338,7 +33338,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33350,7 +33350,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
@@ -33362,19 +33362,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33414,7 +33414,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176652</v>
@@ -33423,31 +33423,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33496,31 +33496,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
@@ -33575,7 +33575,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33587,7 +33587,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
         <v>229.1447054263751</v>
@@ -33599,19 +33599,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33651,7 +33651,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176652</v>
@@ -33660,31 +33660,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33733,31 +33733,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
@@ -33812,7 +33812,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33824,7 +33824,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
         <v>229.1447054263751</v>
@@ -33836,19 +33836,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33888,7 +33888,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176652</v>
@@ -33897,31 +33897,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33970,31 +33970,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
@@ -34049,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34061,7 +34061,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
         <v>229.1447054263751</v>
@@ -34073,19 +34073,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34716,10 +34716,10 @@
         <v>174.4233304118708</v>
       </c>
       <c r="P2" t="n">
-        <v>110.8113448503282</v>
+        <v>110.8113448503281</v>
       </c>
       <c r="Q2" t="n">
-        <v>5.212927593424824</v>
+        <v>5.212927593424808</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>138.7877391315785</v>
+        <v>138.7877391315784</v>
       </c>
       <c r="L3" t="n">
-        <v>203.494600853554</v>
+        <v>248.6418854471727</v>
       </c>
       <c r="M3" t="n">
-        <v>276.1565137023555</v>
+        <v>80.98221455967892</v>
       </c>
       <c r="N3" t="n">
-        <v>276.1565137023555</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>269.1887005891755</v>
       </c>
       <c r="P3" t="n">
-        <v>198.8728484821096</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>79.71116244199195</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34862,19 +34862,19 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>36.97916784721082</v>
+        <v>36.97916784721081</v>
       </c>
       <c r="M4" t="n">
         <v>49.4834113647894</v>
       </c>
       <c r="N4" t="n">
-        <v>53.79631798062264</v>
+        <v>53.79631798062263</v>
       </c>
       <c r="O4" t="n">
-        <v>33.51153056421936</v>
+        <v>33.51153056421935</v>
       </c>
       <c r="P4" t="n">
-        <v>4.916638815831901</v>
+        <v>4.916638815831893</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.16237059200999</v>
+        <v>28.16237059201055</v>
       </c>
       <c r="K5" t="n">
-        <v>164.1725419109932</v>
+        <v>164.172541910994</v>
       </c>
       <c r="L5" t="n">
-        <v>256.4752296548576</v>
+        <v>256.4752296548587</v>
       </c>
       <c r="M5" t="n">
-        <v>302.1523988337552</v>
+        <v>302.1523988337564</v>
       </c>
       <c r="N5" t="n">
-        <v>292.2617450366715</v>
+        <v>292.2617450366727</v>
       </c>
       <c r="O5" t="n">
-        <v>230.3303996539453</v>
+        <v>230.3303996539464</v>
       </c>
       <c r="P5" t="n">
-        <v>158.5267349926781</v>
+        <v>158.5267349926791</v>
       </c>
       <c r="Q5" t="n">
-        <v>41.04519843414906</v>
+        <v>41.04519843414977</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>167.4560060690025</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>287.1899082284207</v>
       </c>
       <c r="M6" t="n">
-        <v>372.0396308464208</v>
+        <v>372.0396308464227</v>
       </c>
       <c r="N6" t="n">
-        <v>372.0396308464208</v>
+        <v>372.0396308464227</v>
       </c>
       <c r="O6" t="n">
-        <v>311.4291731033522</v>
+        <v>311.429173103353</v>
       </c>
       <c r="P6" t="n">
-        <v>232.7745516605751</v>
+        <v>130.4282760844488</v>
       </c>
       <c r="Q6" t="n">
-        <v>17.38762658328895</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>2.360334637542994</v>
+        <v>2.360334637543339</v>
       </c>
       <c r="L7" t="n">
-        <v>59.10772338104121</v>
+        <v>59.10772338104165</v>
       </c>
       <c r="M7" t="n">
-        <v>72.81487052278362</v>
+        <v>72.81487052278408</v>
       </c>
       <c r="N7" t="n">
-        <v>76.57300718821512</v>
+        <v>76.57300718821557</v>
       </c>
       <c r="O7" t="n">
-        <v>54.54948956140629</v>
+        <v>54.5494895614067</v>
       </c>
       <c r="P7" t="n">
-        <v>22.91824715764916</v>
+        <v>22.91824715764951</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181309</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343418</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435299</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060962</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492234</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.563508753045</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116796</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898688</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770683</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031297</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713856</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262936</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338901</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245896</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735645</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535759</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713947</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850084</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535654</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N10" t="n">
-        <v>148.3708461458879</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.866414655798</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873141</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734244</v>
+        <v>776.1294408004663</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>756.532252314524</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
         <v>150.5754385879392</v>
@@ -35734,19 +35734,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>516.775353191425</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35886,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
         <v>415.0406756005178</v>
@@ -35971,22 +35971,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>378.4011515192551</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,13 +36199,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K21" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>334.5577682773024</v>
       </c>
       <c r="M21" t="n">
         <v>310.4243770504663</v>
@@ -36217,13 +36217,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415011</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303338</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109081</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221126</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081129</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951482</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109132</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502054</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349844</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953158</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005183</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.257704956025</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504671</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980136</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411089</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>495.502597509196</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209236</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556572</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299109</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799289</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789729</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.276877805604</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206032</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118011</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187496</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36600,25 +36600,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,13 +36676,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
         <v>333.1945733980129</v>
@@ -36691,13 +36691,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091996</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,19 +36752,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36773,7 +36773,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36837,25 +36837,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315248</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q30" t="n">
-        <v>233.248164095453</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,19 +36989,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
         <v>236.2373515206029</v>
@@ -37010,7 +37010,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37074,25 +37074,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,13 +37150,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005179</v>
+        <v>374.2497035813871</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
         <v>333.1945733980129</v>
@@ -37165,13 +37165,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091996</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,19 +37226,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
         <v>236.2373515206029</v>
@@ -37247,7 +37247,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37311,25 +37311,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>756.532252314524</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315248</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,19 +37463,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
         <v>236.2373515206029</v>
@@ -37484,7 +37484,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37548,25 +37548,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221125</v>
       </c>
       <c r="N38" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315248</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q39" t="n">
-        <v>103.8510818313019</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,19 +37700,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
         <v>236.2373515206029</v>
@@ -37721,7 +37721,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37861,22 +37861,22 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>334.8610358541607</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315247</v>
+        <v>460.8305752819984</v>
       </c>
       <c r="Q42" t="n">
         <v>88.01303278507413</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,7 +38098,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
@@ -38107,19 +38107,19 @@
         <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>702.2839614473859</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
